--- a/заказы/статистика филиалы/2024/01,24/04,01,24 ЗПФ/дв 04,01,24 бррсч зпф.xlsx
+++ b/заказы/статистика филиалы/2024/01,24/04,01,24 ЗПФ/дв 04,01,24 бррсч зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\04,01,24 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\01,24\04,01,24 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90D0D38-CD08-4284-8FC6-236654E663AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25465F2-F460-47B3-8E18-E529D2E4E3F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$Y$53</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="80">
   <si>
     <t>Период: 28.12.2023 - 04.01.2024</t>
   </si>
@@ -273,6 +273,9 @@
   <si>
     <t>02,01,</t>
   </si>
+  <si>
+    <t>08,01,</t>
+  </si>
 </sst>
 </file>
 
@@ -290,6 +293,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -320,7 +325,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,6 +353,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -542,6 +553,10 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4596,7 +4611,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z19" sqref="Z19"/>
+      <selection pane="bottomLeft" activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -4742,7 +4757,9 @@
       <c r="U4" s="12"/>
       <c r="V4" s="12"/>
       <c r="W4" s="11"/>
-      <c r="X4" s="16"/>
+      <c r="X4" s="29" t="s">
+        <v>79</v>
+      </c>
       <c r="Y4" s="12"/>
     </row>
     <row r="5" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -4805,7 +4822,7 @@
       <c r="U5" s="12"/>
       <c r="V5" s="18">
         <f>SUM(V6:V105)</f>
-        <v>6936.22</v>
+        <v>6930.22</v>
       </c>
       <c r="W5" s="11" t="s">
         <v>71</v>
@@ -4816,7 +4833,7 @@
       </c>
       <c r="Y5" s="18">
         <f>SUM(Y6:Y105)</f>
-        <v>6977.22</v>
+        <v>6971.22</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7298,8 +7315,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="23">
-        <f>VLOOKUP(A39,[1]TDSheet!$A:$G,7,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="2">
         <f t="shared" si="3"/>
@@ -7339,7 +7355,7 @@
       </c>
       <c r="V39" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W39" s="23">
         <f>VLOOKUP(A39,[1]TDSheet!$A:$W,23,0)</f>
@@ -7350,7 +7366,7 @@
       </c>
       <c r="Y39" s="2">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7373,8 +7389,7 @@
         <v>18</v>
       </c>
       <c r="G40" s="23">
-        <f>VLOOKUP(A40,[1]TDSheet!$A:$G,7,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="2">
         <f>VLOOKUP(A40,[2]Бердянск!$A:$E,4,0)</f>
@@ -8314,7 +8329,7 @@
       </c>
     </row>
     <row r="53" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="28" t="s">
         <v>77</v>
       </c>
       <c r="B53" s="8" t="s">
